--- a/storage/app/public/files/imports/Products.xlsx
+++ b/storage/app/public/files/imports/Products.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27210"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3F6AD5-2E0C-487B-8270-1B16D54140C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0486B56-4C99-42E7-8F7D-C0B6D58E62A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="193">
   <si>
     <t>Cetirizine</t>
   </si>
@@ -383,6 +383,234 @@
   </si>
   <si>
     <t>Pharmaton Vit.svg</t>
+  </si>
+  <si>
+    <t>Ataroc Syrup</t>
+  </si>
+  <si>
+    <t>ATAROC SYRUP is a medication containing Procaterol HCl 25 mcg/5 ml. Procaterol is a beta-2 adrenergic receptor agonist that acts as a bronchodilator by widening the surface area of the bronchi and bronchioles in the lungs, increasing the lung's oxygen absorption capacity. Procaterol HCl is used to alleviate various symptoms caused by respiratory obstruction disorders from various diseases such as bronchial asthma, chronic bronchitis, pulmonary emphysema, acute bronchitis, and asthmatic bronchitis. The use of this medication MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. The purchase of this medication requires education regarding its proper and safe use, incurring additional charges.</t>
+  </si>
+  <si>
+    <t>Per 5 ml: Procaterol HCl 25 mcg</t>
+  </si>
+  <si>
+    <t>THE USE OF THIS MEDICATION MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. Children under 6 years old: 0.20-0.25 mg/kgBW or 1.125 mcg given once a day or twice a day. Children over 6 years old: 1 measured spoon, given once a day or twice a day.</t>
+  </si>
+  <si>
+    <t>Palpitations, tachycardia, tremors, headache, nausea, vomiting, skin rash.</t>
+  </si>
+  <si>
+    <t>Ataroc Syrup.svg</t>
+  </si>
+  <si>
+    <t>Lasal Expectorant Syrup</t>
+  </si>
+  <si>
+    <t>LASAL EXPECTORANT SYRUP is a medication containing a combination of Salbutamol and Guaifenesin. This medication is used to relieve respiratory distress and aid in the expulsion of phlegm in conditions such as asthma accompanied by cough. Salbutamol is a bronchodilator that selectively stimulates beta-2 adrenergic receptors, particularly in the bronchial muscles. This leads to bronchodilation as the bronchial muscles relax. Guaifenesin is an expectorant that works by increasing the volume and reducing the viscosity of mucus in the trachea and bronchi, making it easier to expel phlegm through the cough mechanism. The use of this medication MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. The purchase of this medication requires education regarding its proper and safe use, incurring additional charges.</t>
+  </si>
+  <si>
+    <t>Each 5 ml contains Glyceryl guaiacolate 75 mg, Salbutamol sulfate 2 mg.</t>
+  </si>
+  <si>
+    <t>On an empty stomach, 1 hour before or 2 hours after meals.</t>
+  </si>
+  <si>
+    <t>THE USE OF THIS MEDICATION MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. Adults: 2-3 times a day, 2-4 measured spoons (5 mL) each time. Children 6-12 years old: 2-3 times a day, 1-2 measured spoons (5 mL) each time. Children under 6 years old: 2-3 times a day, 0.5-1 measured spoon (5 mL) each time.</t>
+  </si>
+  <si>
+    <t>Tremor, palpitations</t>
+  </si>
+  <si>
+    <t>Lasal Expectorant Syrup.svg</t>
+  </si>
+  <si>
+    <t>Profilas Syrup</t>
+  </si>
+  <si>
+    <t>PROFILAS contains Ketotifen Hydrogen Fumarate, used for long-term prevention therapy of bronchial asthma. However, this medication is not effective when administered during an ongoing asthma attack. Additionally, Profilas can be used to relieve allergic rhinitis and conjunctivitis. The active ingredient in Profilas, Ketotifen, is a non-competitive histamine H1 receptor antagonist. Ketotifen inhibits mast cell mediators rich in histamine and heparin, substances involved in the allergic and anaphylactic processes. Ketotifen also balances mast cells, preventing hyperactivity and allergies in the respiratory tract. The use of this medication MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS.</t>
+  </si>
+  <si>
+    <t>Per mL: Ketotifen Hydrogen Fumarate 0.2 mg</t>
+  </si>
+  <si>
+    <t>THE USE OF THIS MEDICATION MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. Children: 0.125 mL/kg BW. Children with BW 14-18 kg: 2 mL. Children with BW 19-25 kg: 3 mL. Children with BW 26-35 kg: 4 mL. Children with BW &gt; 35 kg: 5 mL. Administered twice a day.</t>
+  </si>
+  <si>
+    <t>Drowsiness, dizziness, dry mouth</t>
+  </si>
+  <si>
+    <t>Profilas Syrup.svg</t>
+  </si>
+  <si>
+    <t>Salbutamol</t>
+  </si>
+  <si>
+    <t>SALBUTAMOL 2 MG TABLET is a bronchodilator medication. Salbutamol belongs to the beta-adrenergic agonist class and directly relaxes the smooth muscles in the bronchi. Additionally, salbutamol can reduce uterine contractility due to its tocolytic effects. SALBUTAMOL TABLET is used to treat bronchospasm (such as asthma due to specific allergies, bronchial asthma, asthmatic bronchitis, pulmonary emphysema) and chronic obstructive pulmonary disease (COPD). The use of this medication MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS.</t>
+  </si>
+  <si>
+    <t>Salbutamol 2 mg</t>
+  </si>
+  <si>
+    <t>Before meals</t>
+  </si>
+  <si>
+    <t>THE USE OF THIS MEDICATION MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. Adults: 3-4 times a day, 2-4 mg per tablet. Children aged 6-12 years: 2 times a day, 2 mg. Children aged 2-6 years: 3 times a day, 1-2 mg.</t>
+  </si>
+  <si>
+    <t>Tachycardia, palpitations, nausea, vomiting, muscle cramps, tremors, headache.</t>
+  </si>
+  <si>
+    <t>Salbutamol.svg</t>
+  </si>
+  <si>
+    <t>Teosal</t>
+  </si>
+  <si>
+    <t>TEOSAL TABLET is a bronchodilator medication composed of Salbutamol and Theophylline. Salbutamol is a compound that selectively stimulates beta-2 adrenergic receptors in the bronchial muscles. Theophylline is a methylxanthine derivative with effects that include stimulating the central nervous system and relaxing smooth muscles, especially in the bronchi. The use of this medication MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. The purchase of this medication requires education regarding its proper and safe use, incurring additional charges.</t>
+  </si>
+  <si>
+    <t>Each tablet contains: Salbutamol sulfate 1.2 mg equivalent to Salbutamol 1 mg, Theophylline 130 mg</t>
+  </si>
+  <si>
+    <t>THE USE OF THIS MEDICATION MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. Adults: 3 times a day, 1 tablet. Children aged 6-12 years: 3 times a day, 1/2 tablet.</t>
+  </si>
+  <si>
+    <t>Teosal.svg</t>
+  </si>
+  <si>
+    <t>Ventolin Expectorant Syrup</t>
+  </si>
+  <si>
+    <t>VENTOLIN EXPECTORANT SYRUP is a medication used to treat respiratory diseases characterized by bronchospasm and excessive mucosal secretion, such as bronchial asthma, chronic bronchitis, and emphysema. Ventolin contains salbutamol and guaifenesin. Salbutamol works by selectively stimulating beta-2 adrenergic receptors, especially in the bronchial muscles, leading to bronchodilation as the bronchial muscles relax. Guaifenesin acts as an expectorant by reducing the viscosity of bronchial secretions. The use of this medication MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. The purchase of this medication requires education regarding its proper and safe use, incurring additional charges.</t>
+  </si>
+  <si>
+    <t>Each 5 ml contains: Salbutamol sulfate 1 mg, guaifenesin 50 mg</t>
+  </si>
+  <si>
+    <t>It is advisable to administer on an empty stomach: Give 1 hour before or 2 hours after meals.</t>
+  </si>
+  <si>
+    <t>THE USE OF THIS MEDICATION MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. Adults: 10-20 ml, 2-3 times a day. Children: 2-6 years: 5-10 ml, 2-3 times a day; 6-12 years: 10 ml, 2-3 times a day; &gt;12 years: 10-20 ml, 2-3 times a day.</t>
+  </si>
+  <si>
+    <t>Fine tremor in skeletal muscles, feeling of pressure, headache, peripheral vasodilation, slight compensatory increase in heart rate, temporary muscle cramps, nausea, vomiting, and discomfort in the stomach.</t>
+  </si>
+  <si>
+    <t>Ventolin Expectorant Syrup.svg</t>
+  </si>
+  <si>
+    <t>Paratusin</t>
+  </si>
+  <si>
+    <t>PARATUSIN is a medication containing Noscapine, chlorpheniramine maleate, glyceryl guaiacolate, paracetamol, and phenylpropanolamine HCl. It is used to alleviate flu symptoms such as fever, headache, stuffy nose, and sneezing accompanied by a cough.</t>
+  </si>
+  <si>
+    <t>Noscapine 10 mg, chlorpheniramine maleate 2 mg, glyceryl guaiacolate 50 mg, paracetamol 500 mg, phenylpropanolamine HCl 15 mg</t>
+  </si>
+  <si>
+    <t>After eating</t>
+  </si>
+  <si>
+    <t>Adults: 1 tablet three times a day. Children (6-12 years): 1/2 tablet three times a day.</t>
+  </si>
+  <si>
+    <t>The use of medication typically comes with specific side effects that vary among individuals. If excessive and dangerous side effects occur, it is advisable to consult with medical professionals. Potential side effects of medication use may include anorexia, nausea, vomiting, abdominal discomfort, dry mouth, insomnia, restlessness, anxiety, palpitations, and tachycardia.</t>
+  </si>
+  <si>
+    <t>Paratusin.svg</t>
+  </si>
+  <si>
+    <t>Rhinofed</t>
+  </si>
+  <si>
+    <t>RHINOFED contains Pseudoephedrine HCl and Triprolidine. This medication is used to address symptoms of Rhinitis, including both allergic rhinitis and vasomotor rhinitis. It works to reduce inflammation that occurs in the nasal mucosa during rhinitis. The use of this medication MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS.</t>
+  </si>
+  <si>
+    <t>Pseudoephedrine 60 mg, Triprolidine 2.5 mg</t>
+  </si>
+  <si>
+    <t>Before or after eating</t>
+  </si>
+  <si>
+    <t>THE USE OF THIS MEDICATION MUST BE IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS. For adults and children over 12 years: 3 times a day, 1-2 tablets.</t>
+  </si>
+  <si>
+    <t>Rhinofed.svg</t>
+  </si>
+  <si>
+    <t>Rhinos Junior Sirup</t>
+  </si>
+  <si>
+    <t>RHINOS JUNIOR is a medication containing Pseudoephedrine HCl and Chlorpheniramine Maleate. It is used to alleviate flu symptoms such as sneezing and nasal congestion due to a cold.</t>
+  </si>
+  <si>
+    <t>Each 5 ml contains: Pseudoephedrine HCl 15 mg, Chlorpheniramine maleate 1 mg.</t>
+  </si>
+  <si>
+    <t>For adults and children over 12 years: 2 measuring spoons (10 ml), 3 times a day. For children aged 6-12 years: 1 measuring spoon (5 ml), 3 times a day. For children aged 2-5 years: 1/2 measuring spoon (2.5 ml), 3 times a day. For children under 2 years: as per doctor's instructions.</t>
+  </si>
+  <si>
+    <t>Insomnia, headache, excitement, tremor, tachycardia, arrhythmia, palpitations, difficulty urinating, gastrointestinal disturbances, drowsiness, dry mouth.</t>
+  </si>
+  <si>
+    <t>Rhinos Junior Sirup.svg</t>
+  </si>
+  <si>
+    <t>Stinopi</t>
+  </si>
+  <si>
+    <t>STINOPI is a medication used as a fever reducer accompanied by cough symptoms in influenza. STINOPI contains Paracetamol, which functions as an antipyretic and analgesic, combined with Acetylcysteine, which works to reduce mucus viscosity. The use of this medication must be IN ACCORDANCE WITH DOCTOR'S INSTRUCTIONS.</t>
+  </si>
+  <si>
+    <t>Paracetamol 500 mg, N-Acetylcysteine 200 mg</t>
+  </si>
+  <si>
+    <t>For adults and children over 12 years: 3 times a day, 1-2 tablets.</t>
+  </si>
+  <si>
+    <t>Infrequently occurs: allergic reactions, nausea.</t>
+  </si>
+  <si>
+    <t>Stinopi.svg</t>
+  </si>
+  <si>
+    <t>Vectrine</t>
+  </si>
+  <si>
+    <t>VECTRINE is a medication used to treat acute and chronic respiratory tract disorders, including cough in patients with acute exacerbations of acute bronchitis. Vectrine contains the active ingredient erdosteine, which belongs to the class of mucolytic agents. Mucolytic agents are a type of medication used to thin thick mucus, making it easier to be expelled.</t>
+  </si>
+  <si>
+    <t>Erdostein 300 mg.</t>
+  </si>
+  <si>
+    <t>Before or after eat.</t>
+  </si>
+  <si>
+    <t>1 capsule, 2-3 times a day.</t>
+  </si>
+  <si>
+    <t>Upper abdominal pain, taste disturbances, swelling, nausea, vomiting, diarrhea, headache, itching, and redness on the skin.</t>
+  </si>
+  <si>
+    <t>Vectrine.svg</t>
+  </si>
+  <si>
+    <t>Vectrine Dry Syrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VECTRINE is a medication used to treat acute and chronic respiratory tract disorders, including cough in patients with acute exacerbations of acute bronchitis. VECTRINE contains the active ingredient Erdosteine, which is classified as a mucolytic agent. Mucolytic agents are a type of medication used to thin thick mucus, making it easier to expel. </t>
+  </si>
+  <si>
+    <t>Erdosteine 175 mg</t>
+  </si>
+  <si>
+    <t>Children(15-19 kg): 5 ml, 2 times a day, Children(20-10 kg): 5 ml, 3 times a day, Children(&gt; 30 kg): 10 ml, 2 times a day, 18 Years Old and Above: 10 ml, 2 times a day</t>
+  </si>
+  <si>
+    <t>Disruptions in the digestive tract, such as nausea, vomiting, diarrhea, and pain in the upper abdomen, angioedema, and cutaneous hypersensitivity reactions (such as urticaria, itching, redness, erythema, edema, or eczema), headache, dyspnea, and sensory disturbances.</t>
+  </si>
+  <si>
+    <t>Vectrine Dry Syrup.svg</t>
   </si>
 </sst>
 </file>
@@ -765,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1461,6 +1689,462 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19">
+        <v>74900</v>
+      </c>
+      <c r="I19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20">
+        <v>64900</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21">
+        <v>133000</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22">
+        <v>1800</v>
+      </c>
+      <c r="I22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <v>2900</v>
+      </c>
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24">
+        <v>81700</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25">
+        <v>20100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26">
+        <v>32000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27">
+        <v>72000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28">
+        <v>31500</v>
+      </c>
+      <c r="I28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29">
+        <v>83000</v>
+      </c>
+      <c r="I29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30">
+        <v>78300</v>
+      </c>
+      <c r="I30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
